--- a/Documents/TestingTable.xlsx
+++ b/Documents/TestingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b013728n\Documents\GitHub\ToolsDevForEngines\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0437A2-F9EC-4ADA-A082-30F617C42E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC9A661-3160-4E05-845F-8AB2FC209E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFA27033-66C9-4DCC-86CD-736E875A59B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFA27033-66C9-4DCC-86CD-736E875A59B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>Test Number</t>
   </si>
@@ -159,6 +159,30 @@
   </si>
   <si>
     <t>Adjust bool checks</t>
+  </si>
+  <si>
+    <t>Snow and rain do not spawn simultaneously</t>
+  </si>
+  <si>
+    <t>Scale weather amount with volume size</t>
+  </si>
+  <si>
+    <t>Rain spawn rate should be higher for large volume and lower for small</t>
+  </si>
+  <si>
+    <t>Particle count maxed out</t>
+  </si>
+  <si>
+    <t>Adjust scaling calculation</t>
+  </si>
+  <si>
+    <t>Not enough particles spawning</t>
+  </si>
+  <si>
+    <t>Working, but more adjustment needed. Needs to scale better with very large volumes</t>
+  </si>
+  <si>
+    <t>Adjust scaling calculation with cube root</t>
   </si>
 </sst>
 </file>
@@ -168,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,8 +352,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,25 +377,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -451,95 +478,58 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
+      <font>
+        <i val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
+      <font>
+        <i val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
+      <font>
+        <i val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -565,6 +555,20 @@
       <font>
         <i val="0"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -577,8 +581,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -595,9 +603,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -614,7 +620,28 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -628,169 +655,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -813,17 +679,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}" name="Table2" displayName="Table2" ref="A2:H12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="21" tableBorderDxfId="22">
-  <autoFilter ref="A2:H12" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}" name="Table2" displayName="Table2" ref="A2:H19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A2:H19" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D94DCF1D-6FD5-453C-A46D-9869C38352C8}" name="Test Number" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{A020788D-1D41-4852-9F55-934D91AFA649}" name="Climate + Season" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{6185D29F-D1FE-4971-966C-56AC01B5DC76}" name="Test" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{CC5DF699-CAB0-42B7-9B93-2010CA39B689}" name="Expected Behaviour" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{2376F1A1-CD88-4A07-B52B-FC693313EC8D}" name="Actual Behaviour" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{BD349D04-C2F0-46B6-B369-DBCD3900AEDA}" name="Time" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{8DAE1A83-CC84-487F-BD95-98F6B547DCD1}" name="Success?" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{8BF98F09-E2CC-4F11-8A7A-A33C92D265B4}" name="Fix" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D94DCF1D-6FD5-453C-A46D-9869C38352C8}" name="Test Number" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{A020788D-1D41-4852-9F55-934D91AFA649}" name="Climate + Season" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6185D29F-D1FE-4971-966C-56AC01B5DC76}" name="Test" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CC5DF699-CAB0-42B7-9B93-2010CA39B689}" name="Expected Behaviour" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{2376F1A1-CD88-4A07-B52B-FC693313EC8D}" name="Actual Behaviour" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{BD349D04-C2F0-46B6-B369-DBCD3900AEDA}" name="Time" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8DAE1A83-CC84-487F-BD95-98F6B547DCD1}" name="Success?" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{8BF98F09-E2CC-4F11-8A7A-A33C92D265B4}" name="Fix" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1146,306 +1012,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA2CC5-2E47-478A-8876-EC323C3D42FE}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="94.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="9">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>45702.570138888892</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>45702.578472222223</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>45702.595138888886</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="9">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>45702.598611111112</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>45702.606944444444</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>45702.607638888891</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>45702.619444444441</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>45702.626388888886</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>45702.629166666666</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>45702.632638888892</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="18">
+        <v>45702.720138888886</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="18">
+        <v>45702.743055555555</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="18">
+        <v>45702.744444444441</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="18">
+        <v>45702.745833333334</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="18">
+        <v>45702.75</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="18">
+        <v>45703.786805555559</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G357">
+  <conditionalFormatting sqref="G3:G362">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Indeterminate">
       <formula>NOT(ISERROR(SEARCH("Indeterminate",G3)))</formula>
     </cfRule>

--- a/Documents/TestingTable.xlsx
+++ b/Documents/TestingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b013728n\Documents\GitHub\ToolsDevForEngines\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC9A661-3160-4E05-845F-8AB2FC209E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2729F559-748E-4149-9060-EF9D44E0187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFA27033-66C9-4DCC-86CD-736E875A59B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
   <si>
     <t>Test Number</t>
   </si>
@@ -86,9 +86,6 @@
     <t>In weather types with both snow and rain possible, the two should not occur simultaneously</t>
   </si>
   <si>
-    <t>No weather spawning, fix in code with new conditions based on its data table information</t>
-  </si>
-  <si>
     <t>Low rain should be affected by low wind</t>
   </si>
   <si>
@@ -183,6 +180,120 @@
   </si>
   <si>
     <t>Adjust scaling calculation with cube root</t>
+  </si>
+  <si>
+    <t>Softening of transitions between weather states</t>
+  </si>
+  <si>
+    <t>Transitions more softly, but now it will never reach zero</t>
+  </si>
+  <si>
+    <t>Rain should become closer to the next value before actually transitioning</t>
+  </si>
+  <si>
+    <t>Debug while loop; it isn't actually looping</t>
+  </si>
+  <si>
+    <t>Try using tick</t>
+  </si>
+  <si>
+    <t>Make function for calling timer</t>
+  </si>
+  <si>
+    <t>Transitions more softly and can still reach zero</t>
+  </si>
+  <si>
+    <t>Erraticism factor should affect rate of transition</t>
+  </si>
+  <si>
+    <t>Higher erraticism values should have faster transitions, lower should have slower</t>
+  </si>
+  <si>
+    <t>Transitioning too fast for both high values and low values</t>
+  </si>
+  <si>
+    <t>Wasn't setting erraticism in struct from user input</t>
+  </si>
+  <si>
+    <t>Lower values are transitioning faster, higher are slower</t>
+  </si>
+  <si>
+    <t>Change timer calculations</t>
+  </si>
+  <si>
+    <t>High values have fast transitions and low have slow, but softening time is too long</t>
+  </si>
+  <si>
+    <t>Inverse of softening rate is being applied</t>
+  </si>
+  <si>
+    <t>Softening time should be proportional to erraticism factor</t>
+  </si>
+  <si>
+    <t>Softening is being called too soon because it is within the transition timer</t>
+  </si>
+  <si>
+    <t>Create a timer manager</t>
+  </si>
+  <si>
+    <t>Program failed to build because of recursion causing stack overflow</t>
+  </si>
+  <si>
+    <t>Create a softening manager</t>
+  </si>
+  <si>
+    <t>Create a delay</t>
+  </si>
+  <si>
+    <t>Transitions, but correct softening is inconsistent</t>
+  </si>
+  <si>
+    <t>Soften calculation is getting incorrect elements from queue</t>
+  </si>
+  <si>
+    <t>Incrementing head of queue</t>
+  </si>
+  <si>
+    <t>Spawn rate should soften to midpoint of current and next weather</t>
+  </si>
+  <si>
+    <t>Softening to midpoint with rate proportional to erraticism</t>
+  </si>
+  <si>
+    <t>Mediterranean, Winter</t>
+  </si>
+  <si>
+    <t>Low rain</t>
+  </si>
+  <si>
+    <t>Extremely high rain</t>
+  </si>
+  <si>
+    <t>Weather is scaling inversely</t>
+  </si>
+  <si>
+    <t>Climate|Seasons with low rain should have low rain, and high should have high, rather than doing the opposite and scaling inversely</t>
+  </si>
+  <si>
+    <t>Low rain Climate|Season has low rain, high rain has high rain</t>
+  </si>
+  <si>
+    <t>Should have high rainfall no matter the size of the volume</t>
+  </si>
+  <si>
+    <t>High rainfall no matter the size of the volume</t>
+  </si>
+  <si>
+    <t>Should have low rainfall no matter the size of the volume</t>
+  </si>
+  <si>
+    <t>Low rainfall no matter the size of the volume</t>
+  </si>
+  <si>
+    <t>Weather spawning</t>
+  </si>
+  <si>
+    <t>Fix in code with new conditions based on its data table information</t>
   </si>
 </sst>
 </file>
@@ -377,9 +488,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +592,7 @@
       <font>
         <i val="0"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -536,7 +647,7 @@
       <font>
         <i val="0"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -679,17 +790,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}" name="Table2" displayName="Table2" ref="A2:H19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A2:H19" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}" name="Table2" displayName="Table2" ref="A2:H36" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A2:H36" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D94DCF1D-6FD5-453C-A46D-9869C38352C8}" name="Test Number" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{A020788D-1D41-4852-9F55-934D91AFA649}" name="Climate + Season" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{6185D29F-D1FE-4971-966C-56AC01B5DC76}" name="Test" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{CC5DF699-CAB0-42B7-9B93-2010CA39B689}" name="Expected Behaviour" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2376F1A1-CD88-4A07-B52B-FC693313EC8D}" name="Actual Behaviour" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2376F1A1-CD88-4A07-B52B-FC693313EC8D}" name="Actual Behaviour" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{BD349D04-C2F0-46B6-B369-DBCD3900AEDA}" name="Time" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{8DAE1A83-CC84-487F-BD95-98F6B547DCD1}" name="Success?" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{8BF98F09-E2CC-4F11-8A7A-A33C92D265B4}" name="Fix" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{8DAE1A83-CC84-487F-BD95-98F6B547DCD1}" name="Success?" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{8BF98F09-E2CC-4F11-8A7A-A33C92D265B4}" name="Fix" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1012,22 +1123,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA2CC5-2E47-478A-8876-EC323C3D42FE}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="76.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,7 +1201,9 @@
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -1100,19 +1213,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="10">
         <v>45702.578472222223</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -1127,16 +1240,16 @@
         <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="10">
         <v>45702.595138888886</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -1145,22 +1258,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="10">
         <v>45702.598611111112</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -1169,16 +1282,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="10">
         <v>45702.606944444444</v>
@@ -1187,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,22 +1308,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10">
         <v>45702.607638888891</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -1225,10 +1338,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="10">
         <v>45702.619444444441</v>
@@ -1237,30 +1350,30 @@
         <v>9</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="8">
         <v>45702.626388888886</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1278,16 +1391,16 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="10">
         <v>45702.629166666666</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1304,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="10">
         <v>45702.632638888892</v>
@@ -1313,168 +1426,626 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="10">
+        <v>45702.720138888886</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="18">
-        <v>45702.720138888886</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="D14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="10">
+        <v>45702.743055555555</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="10">
+        <v>45702.744444444441</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="10">
+        <v>45702.745833333334</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="10">
+        <v>45702.75</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="17">
+        <v>45703.786805555559</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="10">
+        <v>45703.522222222222</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="10">
+        <v>45703.529861111114</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
+      <c r="B21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="10">
+        <v>45703.541666666664</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="17">
+        <v>45703.550694444442</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="17">
+        <v>45703.574999999997</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="17">
+        <v>45703.581250000003</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="17">
+        <v>45703.585416666669</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="17">
+        <v>45703.594444444447</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="18">
-        <v>45702.743055555555</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="B27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="17">
+        <v>45703.642361111109</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="18">
-        <v>45702.744444444441</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="H27" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="17">
+        <v>45703.609027777777</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="18">
-        <v>45702.745833333334</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="H28" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="17">
+        <v>45703.618750000001</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="18">
-        <v>45702.75</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="H29" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="17">
+        <v>45703.636805555558</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="17">
+        <v>45703.647222222222</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="17">
+        <v>45703.65347222222</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="17">
+        <v>45703.655555555553</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="18">
-        <v>45703.786805555559</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="C34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="17">
+        <v>45703.701388888891</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="17">
+        <v>45703.70208333333</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="17">
+        <v>45703.702777777777</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G362">
+  <conditionalFormatting sqref="G3:G375">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Indeterminate">
       <formula>NOT(ISERROR(SEARCH("Indeterminate",G3)))</formula>
     </cfRule>

--- a/Documents/TestingTable.xlsx
+++ b/Documents/TestingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b013728n\Documents\GitHub\ToolsDevForEngines\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2729F559-748E-4149-9060-EF9D44E0187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E16A586-7FF2-4FE5-BA0F-87B38071F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFA27033-66C9-4DCC-86CD-736E875A59B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="100">
   <si>
     <t>Test Number</t>
   </si>
@@ -294,6 +294,48 @@
   </si>
   <si>
     <t>Fix in code with new conditions based on its data table information</t>
+  </si>
+  <si>
+    <t>High snow spawn rate</t>
+  </si>
+  <si>
+    <t>Wind changes should be more drastic</t>
+  </si>
+  <si>
+    <t>Wind should remain high, but change precipitation angles more drastically</t>
+  </si>
+  <si>
+    <t>Difference not very noticable</t>
+  </si>
+  <si>
+    <t>Adjust range of values in data table</t>
+  </si>
+  <si>
+    <t>Angle change is drastic</t>
+  </si>
+  <si>
+    <t>High snow and high, drastically changing wind</t>
+  </si>
+  <si>
+    <t>Spawn rate and wind angle being set to 0</t>
+  </si>
+  <si>
+    <t>Properly defined snow data in struct</t>
+  </si>
+  <si>
+    <t>UE_LOG is showing correct values but weather isn't changing</t>
+  </si>
+  <si>
+    <t>User parameter wasn't set to change the gravity in Niagara system</t>
+  </si>
+  <si>
+    <t>Values are definitely correct but are too small to be visible</t>
+  </si>
+  <si>
+    <t>Change data in table</t>
+  </si>
+  <si>
+    <t>High snow and changing wind</t>
   </si>
 </sst>
 </file>
@@ -303,10 +345,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -490,7 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,8 +837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}" name="Table2" displayName="Table2" ref="A2:H36" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A2:H36" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}" name="Table2" displayName="Table2" ref="A2:H43" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A2:H43" xr:uid="{FB7C8FB5-4A60-4589-8AF2-3974B4223A79}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D94DCF1D-6FD5-453C-A46D-9869C38352C8}" name="Test Number" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{A020788D-1D41-4852-9F55-934D91AFA649}" name="Climate + Season" dataDxfId="10"/>
@@ -1123,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA2CC5-2E47-478A-8876-EC323C3D42FE}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1183,7 @@
     <col min="3" max="3" width="94.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="120.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1557,29 +1604,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="10">
         <v>45703.786805555559</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1665,49 +1712,49 @@
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="10">
         <v>45703.550694444442</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="10">
         <v>45703.574999999997</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1715,25 +1762,25 @@
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="10">
         <v>45703.581250000003</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1741,25 +1788,25 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="10">
         <v>45703.585416666669</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1767,25 +1814,25 @@
       <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="10">
         <v>45703.594444444447</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1793,25 +1840,25 @@
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="10">
         <v>45703.642361111109</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1819,25 +1866,25 @@
       <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="10">
         <v>45703.609027777777</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1845,25 +1892,25 @@
       <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="10">
         <v>45703.618750000001</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1871,25 +1918,25 @@
       <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="10">
         <v>45703.636805555558</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1897,25 +1944,25 @@
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="10">
         <v>45703.647222222222</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1923,49 +1970,49 @@
       <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="10">
         <v>45703.65347222222</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="10">
         <v>45703.655555555553</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1973,79 +2020,242 @@
       <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="10">
         <v>45703.701388888891</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="10">
         <v>45703.70208333333</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="10">
         <v>45703.702777777777</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="17">
+        <v>45703.744444444441</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="17">
+        <v>45703.746527777781</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="17">
+        <v>45703.75277777778</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="17">
+        <v>45703.761805555558</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="17">
+        <v>45703.776388888888</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="17">
+        <v>45703.781944444447</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="17">
+        <v>45703.78402777778</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G375">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G379">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Indeterminate">
       <formula>NOT(ISERROR(SEARCH("Indeterminate",G3)))</formula>
     </cfRule>

--- a/Documents/TestingTable.xlsx
+++ b/Documents/TestingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b013728n\Documents\GitHub\ToolsDevForEngines\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E16A586-7FF2-4FE5-BA0F-87B38071F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AF80D0-D597-47F0-AB35-875762185BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFA27033-66C9-4DCC-86CD-736E875A59B1}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -536,8 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EA2CC5-2E47-478A-8876-EC323C3D42FE}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,166 +2087,180 @@
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="10">
         <v>45703.744444444441</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="10">
         <v>45703.746527777781</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16" t="s">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="10">
         <v>45703.75277777778</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="16"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16" t="s">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="10">
         <v>45703.761805555558</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16" t="s">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="10">
         <v>45703.776388888888</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="10">
         <v>45703.781944444447</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="10">
         <v>45703.78402777778</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="16"/>
+      <c r="H43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
